--- a/Intelligibility/mergedIntelligibility_jaccard.xlsx
+++ b/Intelligibility/mergedIntelligibility_jaccard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE26"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2918,99 +2918,6 @@
         <v>0.1081818181818181</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr"/>
-      <c r="B26" t="n">
-        <v>0.1097883597883597</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.09846153846153841</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.1084656084656084</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.1169230769230769</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.113095238095238</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.1037037037037037</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.114074074074074</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.1184615384615384</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.09846153846153841</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.094074074074074</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.0883870967741935</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.1216666666666666</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0.1114285714285714</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.0714285714285714</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0.094074074074074</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0.0744047619047619</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0.0776923076923077</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0.0755555555555555</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0.0734126984126984</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0.0755494505494505</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0.0717241379310344</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0.0755494505494505</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0.0727969348659003</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0.06347826086956521</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0.0755494505494505</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0.0776923076923077</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
